--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -64,58 +61,67 @@
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -124,13 +130,16 @@
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -607,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.351931330472103</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>151</v>
+        <v>404</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,37 +716,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.225</v>
+        <v>0.2074468085106383</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>0.875</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,45 +758,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>68</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -799,21 +784,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,21 +810,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8235294117647058</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -851,21 +836,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -877,21 +862,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -903,21 +888,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -929,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7413793103448276</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -955,21 +940,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7241379310344828</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -981,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1007,47 +992,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7123287671232876</v>
+        <v>0.675</v>
       </c>
       <c r="L16">
+        <v>108</v>
+      </c>
+      <c r="M16">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>52</v>
-      </c>
-      <c r="M16">
-        <v>52</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6410256410256411</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1059,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1085,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1111,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5757575757575758</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1137,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1163,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5492957746478874</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L22">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="M22">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1189,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>96</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5116279069767442</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L23">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1215,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1241,47 +1226,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>0.4461538461538462</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>36</v>
-      </c>
-      <c r="K25">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="L25">
-        <v>17</v>
-      </c>
-      <c r="M25">
-        <v>17</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4239130434782609</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1293,33 +1278,137 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>53</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K27">
-        <v>0.0124777183600713</v>
-      </c>
-      <c r="L27">
-        <v>14</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>0.93</v>
-      </c>
-      <c r="O27">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1108</v>
+      <c r="K28">
+        <v>0.393305439330544</v>
+      </c>
+      <c r="L28">
+        <v>94</v>
+      </c>
+      <c r="M28">
+        <v>94</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.01168770453482936</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>0.86</v>
+      </c>
+      <c r="O30">
+        <v>0.14</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.009383797309978105</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>0.88</v>
+      </c>
+      <c r="O31">
+        <v>0.12</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3167</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,39 +55,42 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -97,49 +100,49 @@
     <t>good</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5958904109589042</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C4">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2170542635658915</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C5">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,37 +719,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2074468085106383</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +769,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +795,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.796875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -818,13 +821,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7833333333333333</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -870,13 +873,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7253521126760564</v>
+        <v>0.7734375</v>
       </c>
       <c r="L11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -896,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -922,13 +925,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7222222222222222</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -940,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -948,13 +951,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7075471698113207</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -966,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -974,13 +977,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6862745098039216</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,13 +1003,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.675</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1026,13 +1029,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6276595744680851</v>
+        <v>0.68125</v>
       </c>
       <c r="L17">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1044,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1052,13 +1055,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.62</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1078,13 +1081,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1104,13 +1107,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1130,13 +1133,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1156,13 +1159,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5456919060052219</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L22">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>174</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1182,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4606741573033708</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1208,13 +1211,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.45</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L24">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M24">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1226,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1234,13 +1237,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4461538461538462</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1260,13 +1263,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4203389830508474</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L26">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>171</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1286,13 +1289,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3972602739726027</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1312,13 +1315,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.393305439330544</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L28">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>145</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1338,13 +1341,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.358974358974359</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1364,25 +1367,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.01168770453482936</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N30">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>2114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1390,7 +1393,7 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.009383797309978105</v>
+        <v>0.01402524544179523</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -1408,7 +1411,33 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>3167</v>
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.009339774557165861</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3076</v>
       </c>
     </row>
   </sheetData>
